--- a/bots/crawl_ch/output/bread_coop_2023-02-23.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-23.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber gefüllt 4x  75g - Online kein Bestand 20% Aktion 5.40 Schweizer Franken statt 6.80 Schweizer Franken</t>
+          <t>Appenzeller Bärli-Biber gefüllt 4x  75g 20% Aktion 5.40 Schweizer Franken statt 6.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9784,7 +9784,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9920,13 +9920,13 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St - Online kein Bestand 30% ab 2 Aktion 3.50 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen 10St 30% ab 2 Aktion 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10202,28 +10202,28 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6787088</t>
+          <t>3041956</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g</t>
+          <t>Linzertorte</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E138" t="n">
         <v>4.5</v>
@@ -10235,12 +10235,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10260,46 +10260,42 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Linzertorte 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3041956</t>
+          <t>6132537</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Linzertorte</t>
+          <t>Naturaplan Bio Reiswaffeln mit Salz</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-salz/p/6132537</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E139" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -10308,12 +10304,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10323,7 +10319,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10333,56 +10329,56 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Linzertorte 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln mit Salz 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6132537</t>
+          <t>6550814</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Salz</t>
+          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-salz/p/6132537</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-choco-cacaonibs/p/6550814</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>2.35/100g</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10392,7 +10388,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10402,56 +10398,56 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Salz 1.40 Schweizer Franken</t>
+          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6550814</t>
+          <t>6820609</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-choco-cacaonibs/p/6550814</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2.35/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10461,7 +10457,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10471,39 +10467,43 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
+          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6820609</t>
+          <t>6668458</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli</t>
+          <t>Betty Bossi Kuchenteig ausgewallt</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10515,12 +10515,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>0.61/100g</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10540,12 +10540,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10555,28 +10555,28 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>6668458</t>
+          <t>4035524</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt</t>
+          <t>Parisette</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/parisette/p/4035524</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10588,12 +10588,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.61/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10613,46 +10613,46 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
+          <t>Parisette 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>4035524</t>
+          <t>4283951</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Parisette</t>
+          <t>Naturaplan Bio Mehrkornbrötli</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/parisette/p/4035524</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E144" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Parisette 0.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10701,28 +10701,28 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>4283951</t>
+          <t>6787088</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli</t>
+          <t>Pastetli 6x30g</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E145" t="n">
         <v>4.5</v>
@@ -10734,12 +10734,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10759,12 +10759,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
+          <t>Pastetli 6x30g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12766,7 +12766,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12829,13 +12829,13 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück - Online kein Bestand 30% ab 2 Aktion 4.50 Schweizer Franken</t>
+          <t>Pasquier Pitch Schokolade 8 Stück 30% ab 2 Aktion 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12977,7 +12977,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13119,7 +13119,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13192,7 +13192,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13261,45 +13261,45 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6628846</t>
+          <t>6962219</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Zitronencake</t>
+          <t>Old el Paso Wraps Whole Wheats</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13319,42 +13319,42 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Zitronencake 6.20 Schweizer Franken</t>
+          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>6628846</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Zitronencake</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E182" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -13363,12 +13363,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13378,7 +13378,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13388,46 +13388,42 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Zitronencake 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E183" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -13436,12 +13432,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13451,7 +13447,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13466,51 +13462,55 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N183" t="inlineStr"/>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6962219</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13530,56 +13530,56 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>3235483</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13589,7 +13589,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13599,56 +13599,56 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3235483</t>
+          <t>6382856</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E186" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13658,7 +13658,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13668,56 +13668,56 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>6382856</t>
+          <t>5909397</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E187" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13737,46 +13737,46 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 4.50 Schweizer Franken</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>5909397</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E188" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -13786,7 +13786,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13806,18 +13806,18 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 3.95 Schweizer Franken</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14101,28 +14101,28 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E193" t="n">
         <v>4.5</v>
@@ -14134,12 +14134,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14149,7 +14149,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14164,51 +14164,51 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>6877241</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Mais Tortillas</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
         </is>
       </c>
       <c r="D194" t="n">
+        <v>20</v>
+      </c>
+      <c r="E194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MASAMOR</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14218,7 +14218,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14228,56 +14228,60 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr"/>
+          <t>Mais Tortillas 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6877241</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Mais Tortillas</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E195" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>MASAMOR</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14287,7 +14291,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14297,22 +14301,18 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Mais Tortillas 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15602,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15744,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15882,7 +15882,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17564,13 +17564,13 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück - Online kein Bestand 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18075,45 +18075,45 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18133,56 +18133,60 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N249" t="inlineStr"/>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D250" t="n">
+        <v>26</v>
+      </c>
+      <c r="E250" t="n">
         <v>5</v>
       </c>
-      <c r="E250" t="n">
-        <v>3</v>
-      </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18192,7 +18196,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18202,60 +18206,60 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18265,7 +18269,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18275,60 +18279,56 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18348,56 +18348,56 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E253" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18407,7 +18407,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18417,18 +18417,18 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18501,7 +18501,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18570,45 +18570,45 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E256" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18618,7 +18618,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18628,56 +18628,60 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E257" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18687,7 +18691,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18697,22 +18701,18 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18781,7 +18781,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19215,43 +19215,45 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>38</v>
+      </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19261,7 +19263,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19271,42 +19273,40 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -19315,12 +19315,12 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19340,56 +19340,56 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E267" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19399,7 +19399,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19414,17 +19414,13 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19493,7 +19489,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19562,7 +19558,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19635,45 +19631,45 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19683,7 +19679,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19693,18 +19689,22 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N271" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19773,7 +19773,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19909,7 +19909,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19978,7 +19978,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20051,45 +20051,45 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20109,56 +20109,60 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N277" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E278" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20168,7 +20172,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20178,22 +20182,18 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20260,7 +20260,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20329,7 +20329,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20398,7 +20398,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20465,7 +20465,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20534,7 +20534,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20676,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21171,7 +21171,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21382,7 +21382,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21451,45 +21451,45 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D297" t="n">
         <v>13</v>
       </c>
       <c r="E297" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21499,7 +21499,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21509,60 +21509,60 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D298" t="n">
         <v>13</v>
       </c>
       <c r="E298" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21572,7 +21572,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21582,22 +21582,22 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21666,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22711,7 +22711,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22853,7 +22853,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22922,7 +22922,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23064,7 +23064,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23413,7 +23413,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23482,7 +23482,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23551,7 +23551,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23620,7 +23620,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23689,7 +23689,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23967,7 +23967,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24249,7 +24249,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24318,7 +24318,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24391,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24460,7 +24460,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24529,7 +24529,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24598,7 +24598,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24667,7 +24667,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -24736,45 +24736,43 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
       <c r="E344" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24784,7 +24782,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24794,54 +24792,60 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N344" t="inlineStr"/>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24851,7 +24855,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24861,60 +24865,56 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E346" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24924,7 +24924,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24934,56 +24934,60 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E347" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24993,7 +24997,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25003,60 +25007,56 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E348" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25076,56 +25076,56 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E349" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25145,56 +25145,56 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25204,7 +25204,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25214,18 +25214,18 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25574,7 +25574,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25647,7 +25647,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25716,7 +25716,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25785,7 +25785,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25854,7 +25854,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25923,7 +25923,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -25996,7 +25996,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26069,7 +26069,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26138,7 +26138,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26278,7 +26278,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26347,7 +26347,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26420,7 +26420,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26491,7 +26491,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26558,7 +26558,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26627,7 +26627,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26696,7 +26696,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26769,7 +26769,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26838,7 +26838,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26911,7 +26911,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -26980,7 +26980,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27049,7 +27049,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27118,7 +27118,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27187,7 +27187,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27256,7 +27256,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27323,7 +27323,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27392,7 +27392,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27459,7 +27459,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27532,7 +27532,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27599,7 +27599,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27666,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
@@ -27733,7 +27733,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-23 12:57:40</t>
+          <t>2023-02-23 20:49:50</t>
         </is>
       </c>
     </row>
